--- a/docs/metricas_FAQs.xlsx
+++ b/docs/metricas_FAQs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanmanuel.castillo\Documents\MoodleIA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE415E-5F08-4A4C-96BA-2056994C31BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C978CFAA-A4A0-4652-8CAD-FC0A1C1D5429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3210" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="87">
   <si>
     <t>PREGUNTA FAQ</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>Mal</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
   </si>
 </sst>
 </file>
@@ -327,12 +333,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -362,11 +374,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,7 +933,7 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,20 +954,20 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
-        <v>84</v>
+      <c r="E16" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,37 +1260,37 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E34" t="s">
-        <v>84</v>
+      <c r="E34" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E35" t="s">
-        <v>84</v>
+      <c r="E35" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,41 +1443,41 @@
         <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
-        <v>84</v>
+      <c r="E45" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E46" t="s">
-        <v>84</v>
+      <c r="E46" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
